--- a/Copia de Metricas_desde_2023-01-14_a_2023-01-21(1345).xlsx
+++ b/Copia de Metricas_desde_2023-01-14_a_2023-01-21(1345).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nehue\Documents\programas_de_python\Upwork_tasks\Google_Analytics_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4EA0E9-71F8-44CA-B659-E86FC6B27F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705A7B4C-4D5F-4393-8293-5CB5DF2B43CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="9156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -546,14 +546,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" customWidth="1"/>
     <col min="5" max="5" width="9.44140625" customWidth="1"/>
     <col min="7" max="7" width="11.77734375" customWidth="1"/>

--- a/Copia de Metricas_desde_2023-01-14_a_2023-01-21(1345).xlsx
+++ b/Copia de Metricas_desde_2023-01-14_a_2023-01-21(1345).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nehue\Documents\programas_de_python\Upwork_tasks\Google_Analytics_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705A7B4C-4D5F-4393-8293-5CB5DF2B43CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8129D0-8EE7-4C0E-8821-4AFB7E2860DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="9156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4428" yWindow="1860" windowWidth="17280" windowHeight="9156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -552,7 +552,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" customWidth="1"/>
     <col min="5" max="5" width="9.44140625" customWidth="1"/>

--- a/Copia de Metricas_desde_2023-01-14_a_2023-01-21(1345).xlsx
+++ b/Copia de Metricas_desde_2023-01-14_a_2023-01-21(1345).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nehue\Documents\programas_de_python\Upwork_tasks\Google_Analytics_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8129D0-8EE7-4C0E-8821-4AFB7E2860DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9540E0-4B75-4FFA-A751-D2E44F9D48AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4428" yWindow="1860" windowWidth="17280" windowHeight="9156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>activeUsers</t>
   </si>
@@ -79,61 +79,13 @@
     <t>wauPerMau</t>
   </si>
   <si>
-    <t>169641</t>
-  </si>
-  <si>
-    <t>545.15020503067092</t>
-  </si>
-  <si>
-    <t>0.34071138255401784</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0.42121402482476417</t>
-  </si>
-  <si>
-    <t>0.52777622220977771</t>
-  </si>
-  <si>
-    <t>182648</t>
-  </si>
-  <si>
-    <t>0.65928861744598211</t>
-  </si>
-  <si>
-    <t>2969039</t>
-  </si>
-  <si>
-    <t>17.501895178641956</t>
-  </si>
-  <si>
-    <t>10.717082133136971</t>
-  </si>
-  <si>
-    <t>134964</t>
-  </si>
-  <si>
-    <t>784724</t>
-  </si>
-  <si>
-    <t>2.832550047285932</t>
-  </si>
-  <si>
-    <t>277038</t>
-  </si>
-  <si>
-    <t>1.6330839832351849</t>
-  </si>
-  <si>
-    <t>172996</t>
-  </si>
-  <si>
-    <t>27691072</t>
-  </si>
-  <si>
-    <t>0.798092083537144</t>
+    <t>New users</t>
+  </si>
+  <si>
+    <t>Returning Users</t>
+  </si>
+  <si>
+    <t>Evolok events</t>
   </si>
 </sst>
 </file>
@@ -165,15 +117,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -196,16 +160,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T9"/>
+  <dimension ref="B1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,139 +534,96 @@
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" customWidth="1"/>
-    <col min="17" max="17" width="21.6640625" customWidth="1"/>
-    <col min="18" max="18" width="11.88671875" customWidth="1"/>
-    <col min="19" max="19" width="26.21875" customWidth="1"/>
-    <col min="20" max="20" width="19" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" customWidth="1"/>
+    <col min="12" max="13" width="20.88671875" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.88671875" customWidth="1"/>
+    <col min="18" max="18" width="26.21875" customWidth="1"/>
+    <col min="19" max="19" width="19" customWidth="1"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
+    <col min="21" max="21" width="17.5546875" customWidth="1"/>
+    <col min="22" max="22" width="29.33203125" customWidth="1"/>
+    <col min="23" max="23" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E9" s="2"/>
-      <c r="G9" s="2"/>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="E8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
